--- a/inst/extdata/toyFiles/FROC/frocCr013Lesions.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCr013Lesions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0AC372-C724-0141-9568-A75001745B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6649C57-D1D8-9642-80D2-FEC634B8CD6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20020" yWindow="4920" windowWidth="10440" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.38486844311992074</v>
+        <v>0.44894470528888419</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -628,11 +628,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J4" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.22</v>
+        <v>5.48</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M11" ca="1" si="1">RAND()-0.5</f>
-        <v>-0.26824757461474735</v>
+        <v>-7.3947262217842757E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -653,11 +653,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40404010081747888</v>
+        <v>0.27789571406574509</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -678,11 +678,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.81</v>
+        <v>6.04</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48797642323790003</v>
+        <v>-7.5906699898728891E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -703,11 +703,11 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J9" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E5, 2)</f>
-        <v>4.8899999999999997</v>
+        <v>5.21</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6129189114169651E-2</v>
+        <v>0.47343928966182325</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -728,11 +728,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>4.45</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4686887216316169</v>
+        <v>-0.18427574421827875</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -753,11 +753,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.19</v>
+        <v>4.99</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39781722380213369</v>
+        <v>-0.17444581113034863</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -778,11 +778,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9901393154723452E-2</v>
+        <v>1.1933302781066857E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -803,11 +803,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.07</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36811219764055692</v>
+        <v>-3.0609632536002795E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16327482238430235</v>
+        <v>0.33656972235363591</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7512612671444288E-3</v>
+        <v>-2.6068157381283652E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -887,7 +887,7 @@
       </c>
       <c r="M13">
         <f ca="1">AVERAGE(M1:M11)</f>
-        <v>4.1975409879621561E-2</v>
+        <v>9.7966421095193698E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.94</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
